--- a/Capstone_Real_Estate_Profits_Data_Analytics/3.8Solver_Rent_Optimization.xlsx
+++ b/Capstone_Real_Estate_Profits_Data_Analytics/3.8Solver_Rent_Optimization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/332dbdf67b1791cd/Study/mySQL/Coursera_Managing_Big_Data_with_MySQL/Capstone_Real_Estate_Profits_Data_Analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="11_3940F3B4B93EA9A5C1B6C8FA43D928B1CD6F1012" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{74602E71-07FB-4B27-96CC-FD85BF9A5D0E}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="11_3940F3B4B93EA9A5C1B6C8FA43D928B1CD6F1012" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{D046B722-1A44-4ACD-923F-D36ACE2505DC}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="504" windowWidth="23040" windowHeight="7992" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1454,11 +1454,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V247"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1644,7 +1644,7 @@
         <f>$D4*12*$E4</f>
         <v>12376.56</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="30">
         <v>148</v>
       </c>
       <c r="H4" s="32">
@@ -1713,7 +1713,7 @@
         <f t="shared" ref="F5:F68" si="1">$D5*12*$E5</f>
         <v>14011.199999999999</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="21">
         <v>133</v>
       </c>
       <c r="H5" s="23">
@@ -1782,7 +1782,7 @@
         <f t="shared" si="1"/>
         <v>38530.799999999996</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="21">
         <v>372</v>
       </c>
       <c r="H6" s="23">
@@ -1851,7 +1851,7 @@
         <f t="shared" si="1"/>
         <v>16346.4</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="21">
         <v>302</v>
       </c>
       <c r="H7" s="23">
@@ -1920,7 +1920,7 @@
         <f t="shared" si="1"/>
         <v>23352</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="21">
         <v>429</v>
       </c>
       <c r="H8" s="23">
@@ -1989,7 +1989,7 @@
         <f t="shared" si="1"/>
         <v>18681.599999999999</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="21">
         <v>380</v>
       </c>
       <c r="H9" s="23">
@@ -2058,7 +2058,7 @@
         <f t="shared" si="1"/>
         <v>32692.799999999999</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="21">
         <v>374</v>
       </c>
       <c r="H10" s="23">
@@ -2127,7 +2127,7 @@
         <f t="shared" si="1"/>
         <v>12843.6</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="21">
         <v>386</v>
       </c>
       <c r="H11" s="23">
@@ -2196,7 +2196,7 @@
         <f t="shared" si="1"/>
         <v>22184.399999999998</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="21">
         <v>212</v>
       </c>
       <c r="H12" s="23">
@@ -2265,7 +2265,7 @@
         <f t="shared" si="1"/>
         <v>21016.799999999999</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="21">
         <v>969</v>
       </c>
       <c r="H13" s="23">
@@ -2334,7 +2334,7 @@
         <f t="shared" si="1"/>
         <v>37363.199999999997</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="21">
         <v>885</v>
       </c>
       <c r="H14" s="23">
@@ -2403,7 +2403,7 @@
         <f t="shared" si="1"/>
         <v>11676</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="21">
         <v>287</v>
       </c>
       <c r="H15" s="23">
@@ -2472,7 +2472,7 @@
         <f t="shared" si="1"/>
         <v>11676</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="21">
         <v>206</v>
       </c>
       <c r="H16" s="23">
@@ -2541,7 +2541,7 @@
         <f t="shared" si="1"/>
         <v>15178.8</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="21">
         <v>462</v>
       </c>
       <c r="H17" s="23">
@@ -2610,7 +2610,7 @@
         <f t="shared" si="1"/>
         <v>14011.199999999999</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="21">
         <v>389</v>
       </c>
       <c r="H18" s="23">
@@ -2679,7 +2679,7 @@
         <f t="shared" si="1"/>
         <v>18681.599999999999</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="21">
         <v>678</v>
       </c>
       <c r="H19" s="23">
@@ -2748,7 +2748,7 @@
         <f t="shared" si="1"/>
         <v>9340.7999999999993</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="21">
         <v>163</v>
       </c>
       <c r="H20" s="23">
@@ -2817,7 +2817,7 @@
         <f t="shared" si="1"/>
         <v>14011.199999999999</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="21">
         <v>374</v>
       </c>
       <c r="H21" s="23">
@@ -2886,7 +2886,7 @@
         <f t="shared" si="1"/>
         <v>10508.4</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="21">
         <v>444</v>
       </c>
       <c r="H22" s="23">
@@ -2955,7 +2955,7 @@
         <f t="shared" si="1"/>
         <v>12843.6</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="21">
         <v>426</v>
       </c>
       <c r="H23" s="23">
@@ -3024,7 +3024,7 @@
         <f t="shared" si="1"/>
         <v>11676</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="21">
         <v>332</v>
       </c>
       <c r="H24" s="23">
@@ -3093,7 +3093,7 @@
         <f t="shared" si="1"/>
         <v>16346.4</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="21">
         <v>430</v>
       </c>
       <c r="H25" s="23">
@@ -3162,7 +3162,7 @@
         <f t="shared" si="1"/>
         <v>17514</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="21">
         <v>662</v>
       </c>
       <c r="H26" s="23">
@@ -3231,7 +3231,7 @@
         <f t="shared" si="1"/>
         <v>15178.8</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="30">
         <v>186</v>
       </c>
       <c r="H27" s="32">
@@ -3300,7 +3300,7 @@
         <f t="shared" si="1"/>
         <v>18681.599999999999</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="21">
         <v>696</v>
       </c>
       <c r="H28" s="23">
@@ -3369,7 +3369,7 @@
         <f t="shared" si="1"/>
         <v>7005.5999999999995</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="21">
         <v>182</v>
       </c>
       <c r="H29" s="23">
@@ -3438,7 +3438,7 @@
         <f t="shared" si="1"/>
         <v>9340.7999999999993</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="21">
         <v>241</v>
       </c>
       <c r="H30" s="23">
@@ -3507,7 +3507,7 @@
         <f t="shared" si="1"/>
         <v>8173.2</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="21">
         <v>363</v>
       </c>
       <c r="H31" s="23">
@@ -3576,7 +3576,7 @@
         <f t="shared" si="1"/>
         <v>11676</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="21">
         <v>301</v>
       </c>
       <c r="H32" s="23">
@@ -3645,7 +3645,7 @@
         <f t="shared" si="1"/>
         <v>8173.2</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="21">
         <v>212</v>
       </c>
       <c r="H33" s="23">
@@ -3714,7 +3714,7 @@
         <f t="shared" si="1"/>
         <v>10508.4</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="21">
         <v>340</v>
       </c>
       <c r="H34" s="23">
@@ -3783,7 +3783,7 @@
         <f t="shared" si="1"/>
         <v>11676</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="21">
         <v>266</v>
       </c>
       <c r="H35" s="23">
@@ -3852,7 +3852,7 @@
         <f t="shared" si="1"/>
         <v>14011.199999999999</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="21">
         <v>442</v>
       </c>
       <c r="H36" s="23">
@@ -3921,7 +3921,7 @@
         <f t="shared" si="1"/>
         <v>14011.199999999999</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="21">
         <v>354</v>
       </c>
       <c r="H37" s="23">
@@ -3990,7 +3990,7 @@
         <f t="shared" si="1"/>
         <v>10741.92</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="21">
         <v>123</v>
       </c>
       <c r="H38" s="23">
@@ -4059,7 +4059,7 @@
         <f t="shared" si="1"/>
         <v>15178.8</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="21">
         <v>377</v>
       </c>
       <c r="H39" s="23">
@@ -4128,7 +4128,7 @@
         <f t="shared" si="1"/>
         <v>12843.6</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="21">
         <v>318</v>
       </c>
       <c r="H40" s="23">
@@ -4197,7 +4197,7 @@
         <f t="shared" si="1"/>
         <v>14011.199999999999</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="21">
         <v>198</v>
       </c>
       <c r="H41" s="23">
@@ -4266,7 +4266,7 @@
         <f t="shared" si="1"/>
         <v>15178.8</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="21">
         <v>149</v>
       </c>
       <c r="H42" s="23">
@@ -4335,7 +4335,7 @@
         <f t="shared" si="1"/>
         <v>19849.2</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="21">
         <v>210</v>
       </c>
       <c r="H43" s="23">
@@ -4404,7 +4404,7 @@
         <f t="shared" si="1"/>
         <v>14011.199999999999</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="21">
         <v>187</v>
       </c>
       <c r="H44" s="23">
@@ -4473,7 +4473,7 @@
         <f t="shared" si="1"/>
         <v>22184.399999999998</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="21">
         <v>225</v>
       </c>
       <c r="H45" s="23">
@@ -4542,7 +4542,7 @@
         <f t="shared" si="1"/>
         <v>11676</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="21">
         <v>123</v>
       </c>
       <c r="H46" s="23">
@@ -4611,7 +4611,7 @@
         <f t="shared" si="1"/>
         <v>17514</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="21">
         <v>263</v>
       </c>
       <c r="H47" s="23">
@@ -4680,7 +4680,7 @@
         <f t="shared" si="1"/>
         <v>15178.8</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="21">
         <v>238</v>
       </c>
       <c r="H48" s="23">
@@ -4749,7 +4749,7 @@
         <f t="shared" si="1"/>
         <v>9924.6</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="21">
         <v>146</v>
       </c>
       <c r="H49" s="23">
@@ -4818,7 +4818,7 @@
         <f t="shared" si="1"/>
         <v>21016.799999999999</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="21">
         <v>349</v>
       </c>
       <c r="H50" s="23">
@@ -4887,7 +4887,7 @@
         <f t="shared" si="1"/>
         <v>12843.6</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="21">
         <v>147</v>
       </c>
       <c r="H51" s="23">
@@ -4956,7 +4956,7 @@
         <f t="shared" si="1"/>
         <v>16346.4</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="21">
         <v>151</v>
       </c>
       <c r="H52" s="23">
@@ -5025,7 +5025,7 @@
         <f t="shared" si="1"/>
         <v>15178.8</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="21">
         <v>429</v>
       </c>
       <c r="H53" s="23">
@@ -5094,7 +5094,7 @@
         <f t="shared" si="1"/>
         <v>22184.399999999998</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="21">
         <v>441</v>
       </c>
       <c r="H54" s="23">
@@ -5163,7 +5163,7 @@
         <f t="shared" si="1"/>
         <v>10508.4</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="21">
         <v>144</v>
       </c>
       <c r="H55" s="23">
@@ -5232,7 +5232,7 @@
         <f t="shared" si="1"/>
         <v>16346.4</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="21">
         <v>136</v>
       </c>
       <c r="H56" s="23">
@@ -5301,7 +5301,7 @@
         <f t="shared" si="1"/>
         <v>16346.4</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="21">
         <v>305</v>
       </c>
       <c r="H57" s="23">
@@ -5370,7 +5370,7 @@
         <f t="shared" si="1"/>
         <v>19849.2</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="21">
         <v>425</v>
       </c>
       <c r="H58" s="23">
@@ -5439,7 +5439,7 @@
         <f t="shared" si="1"/>
         <v>9340.7999999999993</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="21">
         <v>176</v>
       </c>
       <c r="H59" s="23">
@@ -5508,7 +5508,7 @@
         <f t="shared" si="1"/>
         <v>10508.4</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="21">
         <v>169</v>
       </c>
       <c r="H60" s="23">
@@ -5577,7 +5577,7 @@
         <f t="shared" si="1"/>
         <v>15178.8</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="21">
         <v>207</v>
       </c>
       <c r="H61" s="23">
@@ -5646,7 +5646,7 @@
         <f t="shared" si="1"/>
         <v>16346.4</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="21">
         <v>244</v>
       </c>
       <c r="H62" s="23">
@@ -5715,7 +5715,7 @@
         <f t="shared" si="1"/>
         <v>22184.399999999998</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="21">
         <v>536</v>
       </c>
       <c r="H63" s="23">
@@ -5784,7 +5784,7 @@
         <f t="shared" si="1"/>
         <v>19849.2</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="21">
         <v>476</v>
       </c>
       <c r="H64" s="23">
@@ -5853,7 +5853,7 @@
         <f t="shared" si="1"/>
         <v>28022.399999999998</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="21">
         <v>360</v>
       </c>
       <c r="H65" s="23">
@@ -5922,7 +5922,7 @@
         <f t="shared" si="1"/>
         <v>24519.599999999999</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="21">
         <v>1477</v>
       </c>
       <c r="H66" s="23">
@@ -5991,7 +5991,7 @@
         <f t="shared" si="1"/>
         <v>37363.199999999997</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="21">
         <v>1265</v>
       </c>
       <c r="H67" s="23">
@@ -6060,7 +6060,7 @@
         <f t="shared" si="1"/>
         <v>15178.8</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="21">
         <v>328</v>
       </c>
       <c r="H68" s="23">
@@ -6129,7 +6129,7 @@
         <f t="shared" ref="F69:F132" si="11">$D69*12*$E69</f>
         <v>19849.2</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="21">
         <v>246</v>
       </c>
       <c r="H69" s="23">
@@ -6198,7 +6198,7 @@
         <f t="shared" si="11"/>
         <v>16346.4</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="21">
         <v>325</v>
       </c>
       <c r="H70" s="23">
@@ -6267,7 +6267,7 @@
         <f t="shared" si="11"/>
         <v>8757</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="21">
         <v>94</v>
       </c>
       <c r="H71" s="23">
@@ -6336,7 +6336,7 @@
         <f t="shared" si="11"/>
         <v>22184.399999999998</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="21">
         <v>428</v>
       </c>
       <c r="H72" s="23">
@@ -6405,7 +6405,7 @@
         <f t="shared" si="11"/>
         <v>18681.599999999999</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="21">
         <v>188</v>
       </c>
       <c r="H73" s="23">
@@ -6474,7 +6474,7 @@
         <f t="shared" si="11"/>
         <v>25687.200000000001</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="21">
         <v>274</v>
       </c>
       <c r="H74" s="23">
@@ -6543,7 +6543,7 @@
         <f t="shared" si="11"/>
         <v>17514</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="21">
         <v>860</v>
       </c>
       <c r="H75" s="23">
@@ -6612,7 +6612,7 @@
         <f t="shared" si="11"/>
         <v>28022.399999999998</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="21">
         <v>729</v>
       </c>
       <c r="H76" s="23">
@@ -6681,7 +6681,7 @@
         <f t="shared" si="11"/>
         <v>18681.599999999999</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="21">
         <v>174</v>
       </c>
       <c r="H77" s="23">
@@ -6750,7 +6750,7 @@
         <f t="shared" si="11"/>
         <v>22184.399999999998</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="21">
         <v>308</v>
       </c>
       <c r="H78" s="23">
@@ -6819,7 +6819,7 @@
         <f t="shared" si="11"/>
         <v>16346.4</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="21">
         <v>308</v>
       </c>
       <c r="H79" s="23">
@@ -6888,7 +6888,7 @@
         <f t="shared" si="11"/>
         <v>23352</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="21">
         <v>342</v>
       </c>
       <c r="H80" s="23">
@@ -6957,7 +6957,7 @@
         <f t="shared" si="11"/>
         <v>11676</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="21">
         <v>229</v>
       </c>
       <c r="H81" s="23">
@@ -7026,7 +7026,7 @@
         <f t="shared" si="11"/>
         <v>29190</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="21">
         <v>392</v>
       </c>
       <c r="H82" s="23">
@@ -7095,7 +7095,7 @@
         <f t="shared" si="11"/>
         <v>16346.4</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="21">
         <v>322</v>
       </c>
       <c r="H83" s="23">
@@ -7164,7 +7164,7 @@
         <f t="shared" si="11"/>
         <v>15178.8</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="21">
         <v>257</v>
       </c>
       <c r="H84" s="23">
@@ -7233,7 +7233,7 @@
         <f t="shared" si="11"/>
         <v>21016.799999999999</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="21">
         <v>286</v>
       </c>
       <c r="H85" s="23">
@@ -7302,7 +7302,7 @@
         <f t="shared" si="11"/>
         <v>8173.2</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="21">
         <v>180</v>
       </c>
       <c r="H86" s="23">
@@ -7371,7 +7371,7 @@
         <f t="shared" si="11"/>
         <v>10508.4</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="21">
         <v>230</v>
       </c>
       <c r="H87" s="23">
@@ -7440,7 +7440,7 @@
         <f t="shared" si="11"/>
         <v>11676</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="21">
         <v>221</v>
       </c>
       <c r="H88" s="23">
@@ -7509,7 +7509,7 @@
         <f t="shared" si="11"/>
         <v>14011.199999999999</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="21">
         <v>316</v>
       </c>
       <c r="H89" s="23">
@@ -7578,7 +7578,7 @@
         <f t="shared" si="11"/>
         <v>8173.2</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="21">
         <v>245</v>
       </c>
       <c r="H90" s="23">
@@ -7647,7 +7647,7 @@
         <f t="shared" si="11"/>
         <v>11676</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="21">
         <v>266</v>
       </c>
       <c r="H91" s="23">
@@ -7716,7 +7716,7 @@
         <f t="shared" si="11"/>
         <v>9340.7999999999993</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="21">
         <v>325</v>
       </c>
       <c r="H92" s="23">
@@ -7785,7 +7785,7 @@
         <f t="shared" si="11"/>
         <v>29190</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="21">
         <v>393</v>
       </c>
       <c r="H93" s="23">
@@ -7854,7 +7854,7 @@
         <f t="shared" si="11"/>
         <v>10508.4</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="21">
         <v>256</v>
       </c>
       <c r="H94" s="23">
@@ -7923,7 +7923,7 @@
         <f t="shared" si="11"/>
         <v>8173.2</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="21">
         <v>184</v>
       </c>
       <c r="H95" s="23">
@@ -7992,7 +7992,7 @@
         <f t="shared" si="11"/>
         <v>11676</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="21">
         <v>427</v>
       </c>
       <c r="H96" s="23">
@@ -8061,7 +8061,7 @@
         <f t="shared" si="11"/>
         <v>10508.4</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="21">
         <v>418</v>
       </c>
       <c r="H97" s="23">
@@ -8130,7 +8130,7 @@
         <f t="shared" si="11"/>
         <v>14011.199999999999</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="21">
         <v>219</v>
       </c>
       <c r="H98" s="23">
@@ -8199,7 +8199,7 @@
         <f t="shared" si="11"/>
         <v>12843.6</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="21">
         <v>220</v>
       </c>
       <c r="H99" s="23">
@@ -8268,7 +8268,7 @@
         <f t="shared" si="11"/>
         <v>16346.4</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="21">
         <v>481</v>
       </c>
       <c r="H100" s="23">
@@ -8337,7 +8337,7 @@
         <f t="shared" si="11"/>
         <v>15178.8</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="21">
         <v>280</v>
       </c>
       <c r="H101" s="23">
@@ -8406,7 +8406,7 @@
         <f t="shared" si="11"/>
         <v>32692.799999999999</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="21">
         <v>556</v>
       </c>
       <c r="H102" s="23">
@@ -8475,7 +8475,7 @@
         <f t="shared" si="11"/>
         <v>15178.8</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="21">
         <v>318</v>
       </c>
       <c r="H103" s="23">
@@ -8544,7 +8544,7 @@
         <f t="shared" si="11"/>
         <v>18681.599999999999</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="21">
         <v>680</v>
       </c>
       <c r="H104" s="23">
@@ -8613,7 +8613,7 @@
         <f t="shared" si="11"/>
         <v>16346.4</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="21">
         <v>202</v>
       </c>
       <c r="H105" s="23">
@@ -8682,7 +8682,7 @@
         <f t="shared" si="11"/>
         <v>23352</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="21">
         <v>579</v>
       </c>
       <c r="H106" s="23">
@@ -8751,7 +8751,7 @@
         <f t="shared" si="11"/>
         <v>19849.2</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="21">
         <v>524</v>
       </c>
       <c r="H107" s="23">
@@ -8820,7 +8820,7 @@
         <f t="shared" si="11"/>
         <v>29190</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="21">
         <v>560</v>
       </c>
       <c r="H108" s="23">
@@ -8889,7 +8889,7 @@
         <f t="shared" si="11"/>
         <v>21016.799999999999</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="21">
         <v>362</v>
       </c>
       <c r="H109" s="23">
@@ -8958,7 +8958,7 @@
         <f t="shared" si="11"/>
         <v>30357.599999999999</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="21">
         <v>417</v>
       </c>
       <c r="H110" s="23">
@@ -9027,7 +9027,7 @@
         <f t="shared" si="11"/>
         <v>29190</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="21">
         <v>474</v>
       </c>
       <c r="H111" s="23">
@@ -9096,7 +9096,7 @@
         <f t="shared" si="11"/>
         <v>17514</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="21">
         <v>146</v>
       </c>
       <c r="H112" s="23">
@@ -9165,7 +9165,7 @@
         <f t="shared" si="11"/>
         <v>22184.399999999998</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="21">
         <v>568</v>
       </c>
       <c r="H113" s="23">
@@ -9234,7 +9234,7 @@
         <f t="shared" si="11"/>
         <v>10508.4</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="21">
         <v>318</v>
       </c>
       <c r="H114" s="23">
@@ -9303,7 +9303,7 @@
         <f t="shared" si="11"/>
         <v>12843.6</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="21">
         <v>538</v>
       </c>
       <c r="H115" s="23">
@@ -9372,7 +9372,7 @@
         <f t="shared" si="11"/>
         <v>19849.2</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="21">
         <v>312</v>
       </c>
       <c r="H116" s="23">
@@ -9441,7 +9441,7 @@
         <f t="shared" si="11"/>
         <v>42033.599999999999</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="21">
         <v>491</v>
       </c>
       <c r="H117" s="23">
@@ -9510,7 +9510,7 @@
         <f t="shared" si="11"/>
         <v>14011.199999999999</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="21">
         <v>204</v>
       </c>
       <c r="H118" s="23">
@@ -9579,7 +9579,7 @@
         <f t="shared" si="11"/>
         <v>18681.599999999999</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="21">
         <v>245</v>
       </c>
       <c r="H119" s="23">
@@ -9648,7 +9648,7 @@
         <f t="shared" si="11"/>
         <v>11676</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="21">
         <v>197</v>
       </c>
       <c r="H120" s="23">
@@ -9717,7 +9717,7 @@
         <f t="shared" si="11"/>
         <v>17514</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="21">
         <v>195</v>
       </c>
       <c r="H121" s="23">
@@ -9786,7 +9786,7 @@
         <f t="shared" si="11"/>
         <v>8757</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="21">
         <v>124</v>
       </c>
       <c r="H122" s="23">
@@ -9855,7 +9855,7 @@
         <f t="shared" si="11"/>
         <v>12143.039999999999</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="21">
         <v>156</v>
       </c>
       <c r="H123" s="23">
@@ -9924,7 +9924,7 @@
         <f t="shared" si="11"/>
         <v>10508.4</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="21">
         <v>256</v>
       </c>
       <c r="H124" s="23">
@@ -9993,7 +9993,7 @@
         <f t="shared" si="11"/>
         <v>16346.4</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="21">
         <v>284</v>
       </c>
       <c r="H125" s="23">
@@ -10062,7 +10062,7 @@
         <f t="shared" si="11"/>
         <v>9632.6999999999989</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="21">
         <v>128</v>
       </c>
       <c r="H126" s="23">
@@ -10131,7 +10131,7 @@
         <f t="shared" si="11"/>
         <v>31525.200000000001</v>
       </c>
-      <c r="G127" s="29">
+      <c r="G127" s="30">
         <v>337</v>
       </c>
       <c r="H127" s="32">
@@ -10200,7 +10200,7 @@
         <f t="shared" si="11"/>
         <v>15178.8</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="21">
         <v>139</v>
       </c>
       <c r="H128" s="23">
@@ -10269,7 +10269,7 @@
         <f t="shared" si="11"/>
         <v>11676</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="21">
         <v>240</v>
       </c>
       <c r="H129" s="23">
@@ -10338,7 +10338,7 @@
         <f t="shared" si="11"/>
         <v>14011.199999999999</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="21">
         <v>203</v>
       </c>
       <c r="H130" s="23">
@@ -10407,7 +10407,7 @@
         <f t="shared" si="11"/>
         <v>16346.4</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="21">
         <v>240</v>
       </c>
       <c r="H131" s="23">
@@ -10476,7 +10476,7 @@
         <f t="shared" si="11"/>
         <v>18681.599999999999</v>
       </c>
-      <c r="G132">
+      <c r="G132" s="21">
         <v>312</v>
       </c>
       <c r="H132" s="23">
@@ -10545,7 +10545,7 @@
         <f t="shared" ref="F133:F196" si="21">$D133*12*$E133</f>
         <v>12901.98</v>
       </c>
-      <c r="G133">
+      <c r="G133" s="21">
         <v>111</v>
       </c>
       <c r="H133" s="23">
@@ -10614,7 +10614,7 @@
         <f t="shared" si="21"/>
         <v>19440.54</v>
       </c>
-      <c r="G134">
+      <c r="G134" s="21">
         <v>169</v>
       </c>
       <c r="H134" s="23">
@@ -10683,7 +10683,7 @@
         <f t="shared" si="21"/>
         <v>13719.3</v>
       </c>
-      <c r="G135">
+      <c r="G135" s="21">
         <v>201</v>
       </c>
       <c r="H135" s="23">
@@ -10752,7 +10752,7 @@
         <f t="shared" si="21"/>
         <v>20141.099999999999</v>
       </c>
-      <c r="G136">
+      <c r="G136" s="21">
         <v>242</v>
       </c>
       <c r="H136" s="23">
@@ -10821,7 +10821,7 @@
         <f t="shared" si="21"/>
         <v>8278.2839999999997</v>
       </c>
-      <c r="G137">
+      <c r="G137" s="21">
         <v>158</v>
       </c>
       <c r="H137" s="23">
@@ -10890,7 +10890,7 @@
         <f t="shared" si="21"/>
         <v>10146.444</v>
       </c>
-      <c r="G138">
+      <c r="G138" s="21">
         <v>246</v>
       </c>
       <c r="H138" s="23">
@@ -10959,7 +10959,7 @@
         <f t="shared" si="21"/>
         <v>10800.3</v>
       </c>
-      <c r="G139">
+      <c r="G139" s="21">
         <v>207</v>
       </c>
       <c r="H139" s="23">
@@ -11028,7 +11028,7 @@
         <f t="shared" si="21"/>
         <v>15762.6</v>
       </c>
-      <c r="G140">
+      <c r="G140" s="21">
         <v>224</v>
       </c>
       <c r="H140" s="23">
@@ -11097,7 +11097,7 @@
         <f t="shared" si="21"/>
         <v>10508.4</v>
       </c>
-      <c r="G141">
+      <c r="G141" s="21">
         <v>139</v>
       </c>
       <c r="H141" s="23">
@@ -11166,7 +11166,7 @@
         <f t="shared" si="21"/>
         <v>15470.699999999999</v>
       </c>
-      <c r="G142">
+      <c r="G142" s="21">
         <v>283</v>
       </c>
       <c r="H142" s="23">
@@ -11235,7 +11235,7 @@
         <f t="shared" si="21"/>
         <v>11384.1</v>
       </c>
-      <c r="G143">
+      <c r="G143" s="21">
         <v>192</v>
       </c>
       <c r="H143" s="23">
@@ -11304,7 +11304,7 @@
         <f t="shared" si="21"/>
         <v>18097.8</v>
       </c>
-      <c r="G144">
+      <c r="G144" s="21">
         <v>307</v>
       </c>
       <c r="H144" s="23">
@@ -11373,7 +11373,7 @@
         <f t="shared" si="21"/>
         <v>16346.4</v>
       </c>
-      <c r="G145">
+      <c r="G145" s="21">
         <v>232</v>
       </c>
       <c r="H145" s="23">
@@ -11442,7 +11442,7 @@
         <f t="shared" si="21"/>
         <v>23293.62</v>
       </c>
-      <c r="G146">
+      <c r="G146" s="21">
         <v>292</v>
       </c>
       <c r="H146" s="23">
@@ -11511,7 +11511,7 @@
         <f t="shared" si="21"/>
         <v>8873.76</v>
       </c>
-      <c r="G147">
+      <c r="G147" s="21">
         <v>169</v>
       </c>
       <c r="H147" s="23">
@@ -11580,7 +11580,7 @@
         <f t="shared" si="21"/>
         <v>11267.34</v>
       </c>
-      <c r="G148">
+      <c r="G148" s="21">
         <v>189</v>
       </c>
       <c r="H148" s="23">
@@ -11649,7 +11649,7 @@
         <f t="shared" si="21"/>
         <v>13836.06</v>
       </c>
-      <c r="G149">
+      <c r="G149" s="21">
         <v>289</v>
       </c>
       <c r="H149" s="23">
@@ -11718,7 +11718,7 @@
         <f t="shared" si="21"/>
         <v>15645.84</v>
       </c>
-      <c r="G150">
+      <c r="G150" s="21">
         <v>278</v>
       </c>
       <c r="H150" s="23">
@@ -11787,7 +11787,7 @@
         <f t="shared" si="21"/>
         <v>13427.4</v>
       </c>
-      <c r="G151">
+      <c r="G151" s="21">
         <v>183</v>
       </c>
       <c r="H151" s="23">
@@ -11856,7 +11856,7 @@
         <f t="shared" si="21"/>
         <v>23352</v>
       </c>
-      <c r="G152">
+      <c r="G152" s="21">
         <v>237</v>
       </c>
       <c r="H152" s="23">
@@ -11925,7 +11925,7 @@
         <f t="shared" si="21"/>
         <v>18681.599999999999</v>
       </c>
-      <c r="G153">
+      <c r="G153" s="21">
         <v>297</v>
       </c>
       <c r="H153" s="23">
@@ -11994,7 +11994,7 @@
         <f t="shared" si="21"/>
         <v>25103.399999999998</v>
       </c>
-      <c r="G154">
+      <c r="G154" s="21">
         <v>360</v>
       </c>
       <c r="H154" s="23">
@@ -12063,7 +12063,7 @@
         <f t="shared" si="21"/>
         <v>23352</v>
       </c>
-      <c r="G155">
+      <c r="G155" s="21">
         <v>199</v>
       </c>
       <c r="H155" s="23">
@@ -12132,7 +12132,7 @@
         <f t="shared" si="21"/>
         <v>31525.200000000001</v>
       </c>
-      <c r="G156">
+      <c r="G156" s="21">
         <v>389</v>
       </c>
       <c r="H156" s="23">
@@ -12201,7 +12201,7 @@
         <f t="shared" si="21"/>
         <v>37363.199999999997</v>
       </c>
-      <c r="G157">
+      <c r="G157" s="21">
         <v>325</v>
       </c>
       <c r="H157" s="23">
@@ -12270,7 +12270,7 @@
         <f t="shared" si="21"/>
         <v>19849.2</v>
       </c>
-      <c r="G158">
+      <c r="G158" s="21">
         <v>239</v>
       </c>
       <c r="H158" s="23">
@@ -12339,7 +12339,7 @@
         <f t="shared" si="21"/>
         <v>18681.599999999999</v>
       </c>
-      <c r="G159">
+      <c r="G159" s="21">
         <v>209</v>
       </c>
       <c r="H159" s="23">
@@ -12408,7 +12408,7 @@
         <f t="shared" si="21"/>
         <v>24519.599999999999</v>
       </c>
-      <c r="G160">
+      <c r="G160" s="21">
         <v>265</v>
       </c>
       <c r="H160" s="23">
@@ -12477,7 +12477,7 @@
         <f t="shared" si="21"/>
         <v>14011.199999999999</v>
       </c>
-      <c r="G161">
+      <c r="G161" s="21">
         <v>435</v>
       </c>
       <c r="H161" s="23">
@@ -12546,7 +12546,7 @@
         <f t="shared" si="21"/>
         <v>24519.599999999999</v>
       </c>
-      <c r="G162">
+      <c r="G162" s="21">
         <v>487</v>
       </c>
       <c r="H162" s="23">
@@ -12615,7 +12615,7 @@
         <f t="shared" si="21"/>
         <v>29190</v>
       </c>
-      <c r="G163">
+      <c r="G163" s="21">
         <v>231</v>
       </c>
       <c r="H163" s="23">
@@ -12684,7 +12684,7 @@
         <f t="shared" si="21"/>
         <v>17280.48</v>
       </c>
-      <c r="G164">
+      <c r="G164" s="21">
         <v>249</v>
       </c>
       <c r="H164" s="23">
@@ -12753,7 +12753,7 @@
         <f t="shared" si="21"/>
         <v>7589.4</v>
       </c>
-      <c r="G165">
+      <c r="G165" s="21">
         <v>107</v>
       </c>
       <c r="H165" s="23">
@@ -12822,7 +12822,7 @@
         <f t="shared" si="21"/>
         <v>10741.92</v>
       </c>
-      <c r="G166">
+      <c r="G166" s="21">
         <v>147</v>
       </c>
       <c r="H166" s="23">
@@ -12891,7 +12891,7 @@
         <f t="shared" si="21"/>
         <v>10274.879999999999</v>
       </c>
-      <c r="G167">
+      <c r="G167" s="21">
         <v>246</v>
       </c>
       <c r="H167" s="23">
@@ -12960,7 +12960,7 @@
         <f t="shared" si="21"/>
         <v>14011.199999999999</v>
       </c>
-      <c r="G168">
+      <c r="G168" s="21">
         <v>169</v>
       </c>
       <c r="H168" s="23">
@@ -13029,7 +13029,7 @@
         <f t="shared" si="21"/>
         <v>11676</v>
       </c>
-      <c r="G169">
+      <c r="G169" s="21">
         <v>174</v>
       </c>
       <c r="H169" s="23">
@@ -13098,7 +13098,7 @@
         <f t="shared" si="21"/>
         <v>13602.539999999999</v>
       </c>
-      <c r="G170">
+      <c r="G170" s="21">
         <v>180</v>
       </c>
       <c r="H170" s="23">
@@ -13167,7 +13167,7 @@
         <f t="shared" si="21"/>
         <v>18973.5</v>
       </c>
-      <c r="G171">
+      <c r="G171" s="21">
         <v>260</v>
       </c>
       <c r="H171" s="23">
@@ -13236,7 +13236,7 @@
         <f t="shared" si="21"/>
         <v>32109</v>
       </c>
-      <c r="G172">
+      <c r="G172" s="21">
         <v>538</v>
       </c>
       <c r="H172" s="23">
@@ -13305,7 +13305,7 @@
         <f t="shared" si="21"/>
         <v>21016.799999999999</v>
       </c>
-      <c r="G173">
+      <c r="G173" s="21">
         <v>288</v>
       </c>
       <c r="H173" s="23">
@@ -13374,7 +13374,7 @@
         <f t="shared" si="21"/>
         <v>35028</v>
       </c>
-      <c r="G174">
+      <c r="G174" s="21">
         <v>415</v>
       </c>
       <c r="H174" s="23">
@@ -13443,7 +13443,7 @@
         <f t="shared" si="21"/>
         <v>23352</v>
       </c>
-      <c r="G175">
+      <c r="G175" s="21">
         <v>387</v>
       </c>
       <c r="H175" s="23">
@@ -13512,7 +13512,7 @@
         <f t="shared" si="21"/>
         <v>34444.199999999997</v>
       </c>
-      <c r="G176">
+      <c r="G176" s="21">
         <v>575</v>
       </c>
       <c r="H176" s="23">
@@ -13581,7 +13581,7 @@
         <f t="shared" si="21"/>
         <v>35028</v>
       </c>
-      <c r="G177">
+      <c r="G177" s="21">
         <v>620</v>
       </c>
       <c r="H177" s="23">
@@ -13650,7 +13650,7 @@
         <f t="shared" si="21"/>
         <v>35028</v>
       </c>
-      <c r="G178">
+      <c r="G178" s="21">
         <v>235</v>
       </c>
       <c r="H178" s="23">
@@ -13719,7 +13719,7 @@
         <f t="shared" si="21"/>
         <v>45536.4</v>
       </c>
-      <c r="G179">
+      <c r="G179" s="21">
         <v>284</v>
       </c>
       <c r="H179" s="23">
@@ -13788,7 +13788,7 @@
         <f t="shared" si="21"/>
         <v>32692.799999999999</v>
       </c>
-      <c r="G180">
+      <c r="G180" s="21">
         <v>355</v>
       </c>
       <c r="H180" s="23">
@@ -13857,7 +13857,7 @@
         <f t="shared" si="21"/>
         <v>40866</v>
       </c>
-      <c r="G181">
+      <c r="G181" s="21">
         <v>436</v>
       </c>
       <c r="H181" s="23">
@@ -13926,7 +13926,7 @@
         <f t="shared" si="21"/>
         <v>19849.2</v>
       </c>
-      <c r="G182">
+      <c r="G182" s="21">
         <v>228</v>
       </c>
       <c r="H182" s="23">
@@ -13995,7 +13995,7 @@
         <f t="shared" si="21"/>
         <v>30357.599999999999</v>
       </c>
-      <c r="G183">
+      <c r="G183" s="21">
         <v>250</v>
       </c>
       <c r="H183" s="23">
@@ -14064,7 +14064,7 @@
         <f t="shared" si="21"/>
         <v>31466.82</v>
       </c>
-      <c r="G184">
+      <c r="G184" s="21">
         <v>443</v>
       </c>
       <c r="H184" s="23">
@@ -14133,7 +14133,7 @@
         <f t="shared" si="21"/>
         <v>35028</v>
       </c>
-      <c r="G185">
+      <c r="G185" s="21">
         <v>343</v>
       </c>
       <c r="H185" s="23">
@@ -14202,7 +14202,7 @@
         <f t="shared" si="21"/>
         <v>46704</v>
       </c>
-      <c r="G186">
+      <c r="G186" s="21">
         <v>739</v>
       </c>
       <c r="H186" s="23">
@@ -14271,7 +14271,7 @@
         <f t="shared" si="21"/>
         <v>26796.42</v>
       </c>
-      <c r="G187">
+      <c r="G187" s="21">
         <v>270</v>
       </c>
       <c r="H187" s="23">
@@ -14340,7 +14340,7 @@
         <f t="shared" si="21"/>
         <v>35028</v>
       </c>
-      <c r="G188">
+      <c r="G188" s="21">
         <v>424</v>
       </c>
       <c r="H188" s="23">
@@ -14409,7 +14409,7 @@
         <f t="shared" si="21"/>
         <v>38530.799999999996</v>
       </c>
-      <c r="G189">
+      <c r="G189" s="21">
         <v>980</v>
       </c>
       <c r="H189" s="23">
@@ -14478,7 +14478,7 @@
         <f t="shared" si="21"/>
         <v>35028</v>
       </c>
-      <c r="G190">
+      <c r="G190" s="21">
         <v>337</v>
       </c>
       <c r="H190" s="23">
@@ -14547,7 +14547,7 @@
         <f t="shared" si="21"/>
         <v>37363.199999999997</v>
       </c>
-      <c r="G191">
+      <c r="G191" s="21">
         <v>154</v>
       </c>
       <c r="H191" s="23">
@@ -14616,7 +14616,7 @@
         <f t="shared" si="21"/>
         <v>52542</v>
       </c>
-      <c r="G192">
+      <c r="G192" s="21">
         <v>432</v>
       </c>
       <c r="H192" s="23">
@@ -14685,7 +14685,7 @@
         <f t="shared" si="21"/>
         <v>9340.7999999999993</v>
       </c>
-      <c r="G193">
+      <c r="G193" s="21">
         <v>104</v>
       </c>
       <c r="H193" s="23">
@@ -14754,7 +14754,7 @@
         <f t="shared" si="21"/>
         <v>52542</v>
       </c>
-      <c r="G194">
+      <c r="G194" s="21">
         <v>200</v>
       </c>
       <c r="H194" s="23">
@@ -14823,7 +14823,7 @@
         <f t="shared" si="21"/>
         <v>64218</v>
       </c>
-      <c r="G195">
+      <c r="G195" s="21">
         <v>428</v>
       </c>
       <c r="H195" s="23">
@@ -14892,7 +14892,7 @@
         <f t="shared" si="21"/>
         <v>40866</v>
       </c>
-      <c r="G196">
+      <c r="G196" s="21">
         <v>576</v>
       </c>
       <c r="H196" s="23">
@@ -14961,7 +14961,7 @@
         <f t="shared" ref="F197:F247" si="31">$D197*12*$E197</f>
         <v>46704</v>
       </c>
-      <c r="G197">
+      <c r="G197" s="21">
         <v>560</v>
       </c>
       <c r="H197" s="23">
@@ -15030,7 +15030,7 @@
         <f t="shared" si="31"/>
         <v>29190</v>
       </c>
-      <c r="G198">
+      <c r="G198" s="21">
         <v>490</v>
       </c>
       <c r="H198" s="23">
@@ -15099,7 +15099,7 @@
         <f t="shared" si="31"/>
         <v>35028</v>
       </c>
-      <c r="G199">
+      <c r="G199" s="21">
         <v>288</v>
       </c>
       <c r="H199" s="23">
@@ -15168,7 +15168,7 @@
         <f t="shared" si="31"/>
         <v>65385.599999999999</v>
       </c>
-      <c r="G200">
+      <c r="G200" s="21">
         <v>373</v>
       </c>
       <c r="H200" s="23">
@@ -15237,7 +15237,7 @@
         <f t="shared" si="31"/>
         <v>37363.199999999997</v>
       </c>
-      <c r="G201">
+      <c r="G201" s="21">
         <v>420</v>
       </c>
       <c r="H201" s="23">
@@ -15306,7 +15306,7 @@
         <f t="shared" si="31"/>
         <v>40866</v>
       </c>
-      <c r="G202">
+      <c r="G202" s="21">
         <v>593</v>
       </c>
       <c r="H202" s="23">
@@ -15375,7 +15375,7 @@
         <f t="shared" si="31"/>
         <v>39698.400000000001</v>
       </c>
-      <c r="G203">
+      <c r="G203" s="21">
         <v>436</v>
       </c>
       <c r="H203" s="23">
@@ -15444,7 +15444,7 @@
         <f t="shared" si="31"/>
         <v>49039.199999999997</v>
       </c>
-      <c r="G204">
+      <c r="G204" s="21">
         <v>426</v>
       </c>
       <c r="H204" s="23">
@@ -15513,7 +15513,7 @@
         <f t="shared" si="31"/>
         <v>12843.6</v>
       </c>
-      <c r="G205">
+      <c r="G205" s="21">
         <v>142</v>
       </c>
       <c r="H205" s="23">
@@ -15582,7 +15582,7 @@
         <f t="shared" si="31"/>
         <v>35028</v>
       </c>
-      <c r="G206">
+      <c r="G206" s="21">
         <v>621</v>
       </c>
       <c r="H206" s="23">
@@ -15651,7 +15651,7 @@
         <f t="shared" si="31"/>
         <v>45536.4</v>
       </c>
-      <c r="G207">
+      <c r="G207" s="21">
         <v>535</v>
       </c>
       <c r="H207" s="23">
@@ -15720,7 +15720,7 @@
         <f t="shared" si="31"/>
         <v>42033.599999999999</v>
       </c>
-      <c r="G208">
+      <c r="G208" s="21">
         <v>196</v>
       </c>
       <c r="H208" s="23">
@@ -15789,7 +15789,7 @@
         <f t="shared" si="31"/>
         <v>40866</v>
       </c>
-      <c r="G209">
+      <c r="G209" s="21">
         <v>294</v>
       </c>
       <c r="H209" s="23">
@@ -15858,7 +15858,7 @@
         <f t="shared" si="31"/>
         <v>29190</v>
       </c>
-      <c r="G210">
+      <c r="G210" s="21">
         <v>471</v>
       </c>
       <c r="H210" s="23">
@@ -15927,7 +15927,7 @@
         <f t="shared" si="31"/>
         <v>10508.4</v>
       </c>
-      <c r="G211">
+      <c r="G211" s="21">
         <v>141</v>
       </c>
       <c r="H211" s="23">
@@ -15996,7 +15996,7 @@
         <f t="shared" si="31"/>
         <v>52542</v>
       </c>
-      <c r="G212">
+      <c r="G212" s="21">
         <v>994</v>
       </c>
       <c r="H212" s="23">
@@ -16065,7 +16065,7 @@
         <f t="shared" si="31"/>
         <v>31525.200000000001</v>
       </c>
-      <c r="G213">
+      <c r="G213" s="21">
         <v>284</v>
       </c>
       <c r="H213" s="23">
@@ -16134,7 +16134,7 @@
         <f t="shared" si="31"/>
         <v>31525.200000000001</v>
       </c>
-      <c r="G214">
+      <c r="G214" s="21">
         <v>236</v>
       </c>
       <c r="H214" s="23">
@@ -16203,7 +16203,7 @@
         <f t="shared" si="31"/>
         <v>12843.6</v>
       </c>
-      <c r="G215">
+      <c r="G215" s="21">
         <v>188</v>
       </c>
       <c r="H215" s="23">
@@ -16272,7 +16272,7 @@
         <f t="shared" si="31"/>
         <v>35028</v>
       </c>
-      <c r="G216">
+      <c r="G216" s="21">
         <v>329</v>
       </c>
       <c r="H216" s="23">
@@ -16341,7 +16341,7 @@
         <f t="shared" si="31"/>
         <v>52542</v>
       </c>
-      <c r="G217">
+      <c r="G217" s="21">
         <v>549</v>
       </c>
       <c r="H217" s="23">
@@ -16410,7 +16410,7 @@
         <f t="shared" si="31"/>
         <v>57212.4</v>
       </c>
-      <c r="G218">
+      <c r="G218" s="21">
         <v>652</v>
       </c>
       <c r="H218" s="23">
@@ -16479,7 +16479,7 @@
         <f t="shared" si="31"/>
         <v>38530.799999999996</v>
       </c>
-      <c r="G219">
+      <c r="G219" s="21">
         <v>378</v>
       </c>
       <c r="H219" s="23">
@@ -16548,7 +16548,7 @@
         <f t="shared" si="31"/>
         <v>52542</v>
       </c>
-      <c r="G220">
+      <c r="G220" s="21">
         <v>255</v>
       </c>
       <c r="H220" s="23">
@@ -16617,7 +16617,7 @@
         <f t="shared" si="31"/>
         <v>49039.199999999997</v>
       </c>
-      <c r="G221">
+      <c r="G221" s="21">
         <v>441</v>
       </c>
       <c r="H221" s="23">
@@ -16686,7 +16686,7 @@
         <f t="shared" si="31"/>
         <v>29190</v>
       </c>
-      <c r="G222">
+      <c r="G222" s="21">
         <v>356</v>
       </c>
       <c r="H222" s="23">
@@ -16755,7 +16755,7 @@
         <f t="shared" si="31"/>
         <v>29190</v>
       </c>
-      <c r="G223">
+      <c r="G223" s="21">
         <v>437</v>
       </c>
       <c r="H223" s="23">
@@ -16824,7 +16824,7 @@
         <f t="shared" si="31"/>
         <v>38530.799999999996</v>
       </c>
-      <c r="G224">
+      <c r="G224" s="21">
         <v>461</v>
       </c>
       <c r="H224" s="23">
@@ -16893,7 +16893,7 @@
         <f t="shared" si="31"/>
         <v>52542</v>
       </c>
-      <c r="G225">
+      <c r="G225" s="21">
         <v>669</v>
       </c>
       <c r="H225" s="23">
@@ -16962,7 +16962,7 @@
         <f t="shared" si="31"/>
         <v>5838</v>
       </c>
-      <c r="G226">
+      <c r="G226" s="21">
         <v>121</v>
       </c>
       <c r="H226" s="23">
@@ -17031,7 +17031,7 @@
         <f t="shared" si="31"/>
         <v>49039.199999999997</v>
       </c>
-      <c r="G227">
+      <c r="G227" s="21">
         <v>437</v>
       </c>
       <c r="H227" s="23">
@@ -17100,7 +17100,7 @@
         <f t="shared" si="31"/>
         <v>42033.599999999999</v>
       </c>
-      <c r="G228">
+      <c r="G228" s="21">
         <v>663</v>
       </c>
       <c r="H228" s="23">
@@ -17169,7 +17169,7 @@
         <f t="shared" si="31"/>
         <v>46704</v>
       </c>
-      <c r="G229">
+      <c r="G229" s="21">
         <v>337</v>
       </c>
       <c r="H229" s="23">
@@ -17238,7 +17238,7 @@
         <f t="shared" si="31"/>
         <v>64218</v>
       </c>
-      <c r="G230">
+      <c r="G230" s="21">
         <v>447</v>
       </c>
       <c r="H230" s="23">
@@ -17307,7 +17307,7 @@
         <f t="shared" si="31"/>
         <v>35028</v>
       </c>
-      <c r="G231">
+      <c r="G231" s="21">
         <v>610</v>
       </c>
       <c r="H231" s="23">
@@ -17376,7 +17376,7 @@
         <f t="shared" si="31"/>
         <v>46704</v>
       </c>
-      <c r="G232">
+      <c r="G232" s="21">
         <v>302</v>
       </c>
       <c r="H232" s="23">
@@ -17445,7 +17445,7 @@
         <f t="shared" si="31"/>
         <v>46704</v>
       </c>
-      <c r="G233">
+      <c r="G233" s="21">
         <v>213</v>
       </c>
       <c r="H233" s="23">
@@ -17514,7 +17514,7 @@
         <f t="shared" si="31"/>
         <v>58380</v>
       </c>
-      <c r="G234">
+      <c r="G234" s="21">
         <v>364</v>
       </c>
       <c r="H234" s="23">
@@ -17583,7 +17583,7 @@
         <f t="shared" si="31"/>
         <v>37363.199999999997</v>
       </c>
-      <c r="G235">
+      <c r="G235" s="21">
         <v>251</v>
       </c>
       <c r="H235" s="23">
@@ -17652,7 +17652,7 @@
         <f t="shared" si="31"/>
         <v>40866</v>
       </c>
-      <c r="G236">
+      <c r="G236" s="21">
         <v>343</v>
       </c>
       <c r="H236" s="23">
@@ -17721,7 +17721,7 @@
         <f t="shared" si="31"/>
         <v>11267.34</v>
       </c>
-      <c r="G237">
+      <c r="G237" s="21">
         <v>125</v>
       </c>
       <c r="H237" s="23">
@@ -17790,7 +17790,7 @@
         <f t="shared" si="31"/>
         <v>37363.199999999997</v>
       </c>
-      <c r="G238">
+      <c r="G238" s="21">
         <v>251</v>
       </c>
       <c r="H238" s="23">
@@ -17859,7 +17859,7 @@
         <f t="shared" si="31"/>
         <v>40866</v>
       </c>
-      <c r="G239">
+      <c r="G239" s="21">
         <v>404</v>
       </c>
       <c r="H239" s="23">
@@ -17928,7 +17928,7 @@
         <f t="shared" si="31"/>
         <v>35028</v>
       </c>
-      <c r="G240">
+      <c r="G240" s="21">
         <v>161</v>
       </c>
       <c r="H240" s="23">
@@ -17997,7 +17997,7 @@
         <f t="shared" si="31"/>
         <v>30357.599999999999</v>
       </c>
-      <c r="G241">
+      <c r="G241" s="21">
         <v>408</v>
       </c>
       <c r="H241" s="23">
@@ -18066,7 +18066,7 @@
         <f t="shared" si="31"/>
         <v>46704</v>
       </c>
-      <c r="G242">
+      <c r="G242" s="21">
         <v>284</v>
       </c>
       <c r="H242" s="23">
@@ -18135,7 +18135,7 @@
         <f t="shared" si="31"/>
         <v>46704</v>
       </c>
-      <c r="G243">
+      <c r="G243" s="21">
         <v>443</v>
       </c>
       <c r="H243" s="23">
@@ -18204,7 +18204,7 @@
         <f t="shared" si="31"/>
         <v>59547.6</v>
       </c>
-      <c r="G244">
+      <c r="G244" s="21">
         <v>718</v>
       </c>
       <c r="H244" s="23">
@@ -18273,7 +18273,7 @@
         <f t="shared" si="31"/>
         <v>65385.599999999999</v>
       </c>
-      <c r="G245">
+      <c r="G245" s="21">
         <v>478</v>
       </c>
       <c r="H245" s="23">
@@ -18342,7 +18342,7 @@
         <f t="shared" si="31"/>
         <v>58380</v>
       </c>
-      <c r="G246">
+      <c r="G246" s="21">
         <v>533</v>
       </c>
       <c r="H246" s="23">
@@ -18411,7 +18411,7 @@
         <f t="shared" si="31"/>
         <v>70056</v>
       </c>
-      <c r="G247">
+      <c r="G247" s="21">
         <v>566</v>
       </c>
       <c r="H247" s="23">
